--- a/app/Book1.xlsx
+++ b/app/Book1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMFORT ANI\Documents\GitHub\wassceverse\app\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="28692" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Class</t>
   </si>
@@ -109,17 +114,20 @@
   </si>
   <si>
     <t>010123012</t>
+  </si>
+  <si>
+    <t>Year Completed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(\+\ ###0_);"/>
     <numFmt numFmtId="165" formatCode="dd\/mm\/yyyy"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +167,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -205,7 +221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,9 +253,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,6 +288,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -446,31 +464,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" customWidth="1"/>
-    <col min="10" max="10" width="27.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" customWidth="1"/>
+    <col min="10" max="10" width="27.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.44140625" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -510,8 +528,11 @@
       <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -551,8 +572,11 @@
       <c r="M3" s="2">
         <v>38431</v>
       </c>
+      <c r="N3" s="3">
+        <v>2019</v>
+      </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -588,6 +612,9 @@
       </c>
       <c r="M4" s="2">
         <v>38431</v>
+      </c>
+      <c r="N4" s="3">
+        <v>2019</v>
       </c>
     </row>
   </sheetData>
@@ -597,24 +624,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/Book1.xlsx
+++ b/app/Book1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Class</t>
   </si>
@@ -117,6 +117,30 @@
   </si>
   <si>
     <t>Year Completed</t>
+  </si>
+  <si>
+    <t>Sarkwah</t>
+  </si>
+  <si>
+    <t>Edwin</t>
+  </si>
+  <si>
+    <t>Sarpong</t>
+  </si>
+  <si>
+    <t>3 Science 15</t>
+  </si>
+  <si>
+    <t>0201123028</t>
+  </si>
+  <si>
+    <t>+233551442796</t>
+  </si>
+  <si>
+    <t>+23345657746</t>
+  </si>
+  <si>
+    <t>+233552290535</t>
   </si>
 </sst>
 </file>
@@ -156,11 +180,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,9 +490,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -484,8 +509,9 @@
     <col min="9" max="9" width="7.5546875" customWidth="1"/>
     <col min="10" max="10" width="27.88671875" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.44140625" customWidth="1"/>
+    <col min="12" max="12" width="20.44140625" style="3" customWidth="1"/>
     <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -522,13 +548,13 @@
       <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -566,8 +592,8 @@
       <c r="K3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="1">
-        <v>233551442796</v>
+      <c r="L3" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="M3" s="2">
         <v>38431</v>
@@ -607,13 +633,57 @@
       <c r="K4" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="1">
-        <v>233551442796</v>
+      <c r="L4" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="M4" s="2">
         <v>38431</v>
       </c>
       <c r="N4" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="4">
+        <v>37398</v>
+      </c>
+      <c r="N5" s="3">
         <v>2019</v>
       </c>
     </row>
